--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlNotice.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlNotice.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7AC3C1-40D2-4EC7-AF22-30A581AD38DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -297,11 +296,15 @@
     <t>最後通知科組別</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -574,9 +577,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 3" xfId="3" xr:uid="{2B2B6048-ED20-43C0-B9A9-5F8025674D2D}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 3" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,23 +670,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -719,23 +705,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -911,11 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
@@ -1216,7 +1185,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E17" s="15">
         <v>8</v>
@@ -1467,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlNotice.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlNotice.xlsx
@@ -884,7 +884,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
